--- a/Test/Lawnmower/T2/Sensors_data_1000036.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000036.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8905682055862221</v>
+        <v>0.9866957103413668</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004294222531334656</v>
+        <v>0.000906789305409275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0296955504407897</v>
+        <v>0.1449397564342579</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9372167893844019</v>
+        <v>0.9800780873569783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002229553710213104</v>
+        <v>0.001078375022680616</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05288719798672942</v>
+        <v>0.1997000005934579</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,118 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9755853935794071</v>
+        <v>0.9843166824983973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001683317091330997</v>
+        <v>0.0006284173372033584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0008137700587951824</v>
+        <v>0.09818750674192817</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4535116082018459</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02164244415680449</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3753417269650434</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9124788313766863</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.004006767221455683</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01030955963043212</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07796839219354412</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04362439048084946</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4813331877242176</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8977425128246138</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.006969631460819578</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.320492915687618</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
